--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H2">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I2">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J2">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.033285</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N2">
-        <v>0.099855</v>
+        <v>2.143422</v>
       </c>
       <c r="O2">
-        <v>0.007684499559038781</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P2">
-        <v>0.007684499559038781</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q2">
-        <v>0.02150945489</v>
+        <v>0.437445756504</v>
       </c>
       <c r="R2">
-        <v>0.19358509401</v>
+        <v>3.937011808536</v>
       </c>
       <c r="S2">
-        <v>3.172271049932835E-05</v>
+        <v>0.0009409106615146337</v>
       </c>
       <c r="T2">
-        <v>3.172271049932835E-05</v>
+        <v>0.0009409106615146337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H3">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I3">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J3">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.422619</v>
       </c>
       <c r="O3">
-        <v>0.9560023056192156</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P3">
-        <v>0.9560023056192157</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q3">
-        <v>2.675917710642</v>
+        <v>2.535301945308</v>
       </c>
       <c r="R3">
-        <v>24.083259395778</v>
+        <v>22.817717507772</v>
       </c>
       <c r="S3">
-        <v>0.003946513906969664</v>
+        <v>0.005453230703535868</v>
       </c>
       <c r="T3">
-        <v>0.003946513906969665</v>
+        <v>0.005453230703535868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H4">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I4">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J4">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1572886666666667</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N4">
-        <v>0.471866</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O4">
-        <v>0.03631319482174546</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P4">
-        <v>0.03631319482174546</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q4">
-        <v>0.1016431870324444</v>
+        <v>0.1743507741857778</v>
       </c>
       <c r="R4">
-        <v>0.914788683292</v>
+        <v>1.569156967672</v>
       </c>
       <c r="S4">
-        <v>0.0001499060488956594</v>
+        <v>0.0003750145014224836</v>
       </c>
       <c r="T4">
-        <v>0.0001499060488956594</v>
+        <v>0.0003750145014224835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.319587</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H5">
-        <v>0.958761</v>
+        <v>1.836788</v>
       </c>
       <c r="I5">
-        <v>0.002041563816150747</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J5">
-        <v>0.002041563816150747</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.033285</v>
+        <v>0.007528666666666667</v>
       </c>
       <c r="N5">
-        <v>0.099855</v>
+        <v>0.022586</v>
       </c>
       <c r="O5">
-        <v>0.007684499559038781</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="P5">
-        <v>0.007684499559038781</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="Q5">
-        <v>0.010637453295</v>
+        <v>0.004609521529777777</v>
       </c>
       <c r="R5">
-        <v>0.095737079655</v>
+        <v>0.041485693768</v>
       </c>
       <c r="S5">
-        <v>1.568839624495995E-05</v>
+        <v>9.91471030948153E-06</v>
       </c>
       <c r="T5">
-        <v>1.568839624495995E-05</v>
+        <v>9.914710309481528E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,10 +791,10 @@
         <v>0.958761</v>
       </c>
       <c r="I6">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J6">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.140873</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N6">
-        <v>12.422619</v>
+        <v>2.143422</v>
       </c>
       <c r="O6">
-        <v>0.9560023056192156</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P6">
-        <v>0.9560023056192157</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q6">
-        <v>1.323369179451</v>
+        <v>0.228336602238</v>
       </c>
       <c r="R6">
-        <v>11.910322615059</v>
+        <v>2.055029420142</v>
       </c>
       <c r="S6">
-        <v>0.001951739715308879</v>
+        <v>0.0004911336783256597</v>
       </c>
       <c r="T6">
-        <v>0.001951739715308879</v>
+        <v>0.0004911336783256597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,10 +853,10 @@
         <v>0.958761</v>
       </c>
       <c r="I7">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J7">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1572886666666667</v>
+        <v>4.140873</v>
       </c>
       <c r="N7">
-        <v>0.471866</v>
+        <v>12.422619</v>
       </c>
       <c r="O7">
-        <v>0.03631319482174546</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P7">
-        <v>0.03631319482174546</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q7">
-        <v>0.050267413114</v>
+        <v>1.323369179451</v>
       </c>
       <c r="R7">
-        <v>0.452406718026</v>
+        <v>11.910322615059</v>
       </c>
       <c r="S7">
-        <v>7.413570459690822E-05</v>
+        <v>0.002846460736107135</v>
       </c>
       <c r="T7">
-        <v>7.413570459690822E-05</v>
+        <v>0.002846460736107135</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,51 +909,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.697193666666667</v>
+        <v>0.319587</v>
       </c>
       <c r="H8">
-        <v>8.091581</v>
+        <v>0.958761</v>
       </c>
       <c r="I8">
-        <v>0.01723002811446532</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J8">
-        <v>0.01723002811446532</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.033285</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N8">
-        <v>0.099855</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O8">
-        <v>0.007684499559038781</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P8">
-        <v>0.007684499559038781</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q8">
-        <v>0.089776091195</v>
+        <v>0.09100708552600002</v>
       </c>
       <c r="R8">
-        <v>0.807984820755</v>
+        <v>0.8190637697340001</v>
       </c>
       <c r="S8">
-        <v>0.0001324041434478345</v>
+        <v>0.0001957489260591434</v>
       </c>
       <c r="T8">
-        <v>0.0001324041434478345</v>
+        <v>0.0001957489260591433</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,46 +971,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.697193666666667</v>
+        <v>0.319587</v>
       </c>
       <c r="H9">
-        <v>8.091581</v>
+        <v>0.958761</v>
       </c>
       <c r="I9">
-        <v>0.01723002811446532</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J9">
-        <v>0.01723002811446532</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.140873</v>
+        <v>0.007528666666666667</v>
       </c>
       <c r="N9">
-        <v>12.422619</v>
+        <v>0.022586</v>
       </c>
       <c r="O9">
-        <v>0.9560023056192156</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="P9">
-        <v>0.9560023056192157</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="Q9">
-        <v>11.168736430071</v>
+        <v>0.002406063994</v>
       </c>
       <c r="R9">
-        <v>100.518627870639</v>
+        <v>0.021654575946</v>
       </c>
       <c r="S9">
-        <v>0.01647194660331275</v>
+        <v>5.175250258074868E-06</v>
       </c>
       <c r="T9">
-        <v>0.01647194660331275</v>
+        <v>5.175250258074868E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H10">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I10">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J10">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1572886666666667</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N10">
-        <v>0.471866</v>
+        <v>2.143422</v>
       </c>
       <c r="O10">
-        <v>0.03631319482174546</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P10">
-        <v>0.03631319482174546</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q10">
-        <v>0.4242379955717778</v>
+        <v>0.082848261618</v>
       </c>
       <c r="R10">
-        <v>3.818141960146</v>
+        <v>0.745634354562</v>
       </c>
       <c r="S10">
-        <v>0.0006256773677047308</v>
+        <v>0.0001781999516175831</v>
       </c>
       <c r="T10">
-        <v>0.0006256773677047308</v>
+        <v>0.0001781999516175831</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>152.8772926666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H11">
-        <v>458.631878</v>
+        <v>0.347871</v>
       </c>
       <c r="I11">
-        <v>0.9766002654030193</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J11">
-        <v>0.9766002654030193</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.033285</v>
+        <v>4.140873</v>
       </c>
       <c r="N11">
-        <v>0.099855</v>
+        <v>12.422619</v>
       </c>
       <c r="O11">
-        <v>0.007684499559038781</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P11">
-        <v>0.007684499559038781</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q11">
-        <v>5.088520686410001</v>
+        <v>0.480163210461</v>
       </c>
       <c r="R11">
-        <v>45.79668617769001</v>
+        <v>4.321468894149</v>
       </c>
       <c r="S11">
-        <v>0.007504684308846658</v>
+        <v>0.001032792471460901</v>
       </c>
       <c r="T11">
-        <v>0.007504684308846658</v>
+        <v>0.001032792471460901</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>152.8772926666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H12">
-        <v>458.631878</v>
+        <v>0.347871</v>
       </c>
       <c r="I12">
-        <v>0.9766002654030193</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J12">
-        <v>0.9766002654030193</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.140873</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N12">
-        <v>12.422619</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O12">
-        <v>0.9560023056192156</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P12">
-        <v>0.9560023056192157</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q12">
-        <v>633.045453516498</v>
+        <v>0.03302045645266667</v>
       </c>
       <c r="R12">
-        <v>5697.409081648483</v>
+        <v>0.297184108074</v>
       </c>
       <c r="S12">
-        <v>0.9336321053936243</v>
+        <v>7.102434773329355E-05</v>
       </c>
       <c r="T12">
-        <v>0.9336321053936244</v>
+        <v>7.102434773329354E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.115957</v>
+      </c>
+      <c r="H13">
+        <v>0.347871</v>
+      </c>
+      <c r="I13">
+        <v>0.001283894527085267</v>
+      </c>
+      <c r="J13">
+        <v>0.001283894527085267</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.007528666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.022586</v>
+      </c>
+      <c r="O13">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="P13">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="Q13">
+        <v>0.0008730016006666667</v>
+      </c>
+      <c r="R13">
+        <v>0.007857014406</v>
+      </c>
+      <c r="S13">
+        <v>1.877756273489183E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.877756273489183E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>89.26880233333334</v>
+      </c>
+      <c r="H14">
+        <v>267.806407</v>
+      </c>
+      <c r="I14">
+        <v>0.9883985163053822</v>
+      </c>
+      <c r="J14">
+        <v>0.9883985163053823</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7144740000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.143422</v>
+      </c>
+      <c r="O14">
+        <v>0.138796410342318</v>
+      </c>
+      <c r="P14">
+        <v>0.138796410342318</v>
+      </c>
+      <c r="Q14">
+        <v>63.78023827830601</v>
+      </c>
+      <c r="R14">
+        <v>574.0221445047541</v>
+      </c>
+      <c r="S14">
+        <v>0.1371861660508601</v>
+      </c>
+      <c r="T14">
+        <v>0.1371861660508601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>89.26880233333334</v>
+      </c>
+      <c r="H15">
+        <v>267.806407</v>
+      </c>
+      <c r="I15">
+        <v>0.9883985163053822</v>
+      </c>
+      <c r="J15">
+        <v>0.9883985163053823</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.140873</v>
+      </c>
+      <c r="N15">
+        <v>12.422619</v>
+      </c>
+      <c r="O15">
+        <v>0.8044215857867821</v>
+      </c>
+      <c r="P15">
+        <v>0.8044215857867821</v>
+      </c>
+      <c r="Q15">
+        <v>369.650773324437</v>
+      </c>
+      <c r="R15">
+        <v>3326.856959919934</v>
+      </c>
+      <c r="S15">
+        <v>0.7950891018756782</v>
+      </c>
+      <c r="T15">
+        <v>0.7950891018756783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>152.8772926666667</v>
-      </c>
-      <c r="H13">
-        <v>458.631878</v>
-      </c>
-      <c r="I13">
-        <v>0.9766002654030193</v>
-      </c>
-      <c r="J13">
-        <v>0.9766002654030193</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.1572886666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.471866</v>
-      </c>
-      <c r="O13">
-        <v>0.03631319482174546</v>
-      </c>
-      <c r="P13">
-        <v>0.03631319482174546</v>
-      </c>
-      <c r="Q13">
-        <v>24.04586552714978</v>
-      </c>
-      <c r="R13">
-        <v>216.412789744348</v>
-      </c>
-      <c r="S13">
-        <v>0.03546347570054816</v>
-      </c>
-      <c r="T13">
-        <v>0.03546347570054816</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>89.26880233333334</v>
+      </c>
+      <c r="H16">
+        <v>267.806407</v>
+      </c>
+      <c r="I16">
+        <v>0.9883985163053822</v>
+      </c>
+      <c r="J16">
+        <v>0.9883985163053823</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2847646666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.8542940000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.05531945672713084</v>
+      </c>
+      <c r="P16">
+        <v>0.05531945672713083</v>
+      </c>
+      <c r="Q16">
+        <v>25.42060074018423</v>
+      </c>
+      <c r="R16">
+        <v>228.7854066616581</v>
+      </c>
+      <c r="S16">
+        <v>0.05467766895191592</v>
+      </c>
+      <c r="T16">
+        <v>0.05467766895191591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>89.26880233333334</v>
+      </c>
+      <c r="H17">
+        <v>267.806407</v>
+      </c>
+      <c r="I17">
+        <v>0.9883985163053822</v>
+      </c>
+      <c r="J17">
+        <v>0.9883985163053823</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.007528666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.022586</v>
+      </c>
+      <c r="O17">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="P17">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="Q17">
+        <v>0.6720750565002223</v>
+      </c>
+      <c r="R17">
+        <v>6.048675508502002</v>
+      </c>
+      <c r="S17">
+        <v>0.001445579426927934</v>
+      </c>
+      <c r="T17">
+        <v>0.001445579426927934</v>
       </c>
     </row>
   </sheetData>
